--- a/20170801~20170822莆田施工监工项目部报销/201708101~20170822报销统计表.xlsx
+++ b/20170801~20170822莆田施工监工项目部报销/201708101~20170822报销统计表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="汇总" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="28">
   <si>
     <t>车船票</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,6 +123,18 @@
   </si>
   <si>
     <t>王兆林补贴吃超</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车船票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补贴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市内交通</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -130,7 +142,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,6 +155,13 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -166,9 +185,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -451,7 +471,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -811,10 +831,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43:D43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7:N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -825,7 +845,7 @@
     <col min="10" max="11" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -857,7 +877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -875,7 +895,7 @@
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -892,7 +912,7 @@
         <v>32.799999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -909,7 +929,7 @@
         <v>37.6</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -926,57 +946,79 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M7" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N8">
+        <v>143.30000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N10" s="2">
+        <f>SUM(N7:N9)</f>
+        <v>485.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
